--- a/xlsx/自由民主_intext.xlsx
+++ b/xlsx/自由民主_intext.xlsx
@@ -29,7 +29,7 @@
     <t>自由</t>
   </si>
   <si>
-    <t>政策_政策_美國_自由民主</t>
+    <t>政策_政策_美国_自由民主</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B0%91%E4%B8%BB_(%E5%A0%B1%E7%B4%99)</t>
   </si>
   <si>
-    <t>自由民主 (報紙)</t>
+    <t>自由民主 (报纸)</t>
   </si>
 </sst>
 </file>
